--- a/data/oneblock-generator-template.xlsx
+++ b/data/oneblock-generator-template.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rynortheast\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rynortheast\Desktop\PROJECT\oneblock-software-tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496"/>
   </bookViews>
   <sheets>
-    <sheet name="ГЕНЕРАТОР БЛОКОВ v3" sheetId="12" r:id="rId1"/>
+    <sheet name="GENERATOR BLOCKS V3" sheetId="12" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -31,6 +31,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
           <t>id</t>
@@ -44,6 +46,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
           <t>displayName</t>
@@ -57,6 +61,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
           <t>blocksRequired</t>
@@ -70,6 +76,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
           <t>unlockCost</t>
@@ -83,6 +91,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
           <t>fastUnlockCost</t>
@@ -96,6 +106,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
           <t>backgroundImage</t>
@@ -109,6 +121,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
           <t>id</t>
@@ -122,6 +136,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
           <t>displayName</t>
@@ -135,6 +151,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
           <t>blocksRequired</t>
@@ -148,6 +166,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
           <t>unlockCost</t>
@@ -161,6 +181,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
           <t>fastUnlockCost</t>
@@ -174,6 +196,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
           <t>backgroundImage</t>
@@ -540,7 +564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -648,6 +672,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -839,19 +871,19 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1075,7 +1107,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L6" sqref="L6"/>
+      <selection pane="topRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1088,75 +1120,75 @@
   <sheetData>
     <row r="1" spans="1:66" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="32" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="34"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="32"/>
+      <c r="BB1" s="32"/>
+      <c r="BC1" s="32"/>
+      <c r="BD1" s="32"/>
+      <c r="BE1" s="32"/>
+      <c r="BF1" s="32"/>
+      <c r="BG1" s="32"/>
+      <c r="BH1" s="33"/>
       <c r="BI1" s="7"/>
       <c r="BJ1" s="7"/>
       <c r="BK1" s="7"/>
       <c r="BL1" s="7"/>
       <c r="BM1" s="7"/>
-      <c r="BN1" s="36"/>
+      <c r="BN1" s="37"/>
     </row>
     <row r="2" spans="1:66" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -1200,7 +1232,7 @@
       <c r="AA2" s="10"/>
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
-      <c r="AD2" s="31"/>
+      <c r="AD2" s="35"/>
       <c r="AE2" s="9">
         <v>2</v>
       </c>
@@ -1248,96 +1280,96 @@
       <c r="BK2" s="10"/>
       <c r="BL2" s="10"/>
       <c r="BM2" s="10"/>
-      <c r="BN2" s="31"/>
+      <c r="BN2" s="35"/>
     </row>
     <row r="3" spans="1:66" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
       <c r="Y3" s="12"/>
-      <c r="Z3" s="37" t="s">
+      <c r="Z3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="37" t="s">
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
       <c r="AK3" s="7"/>
-      <c r="AL3" s="37" t="s">
+      <c r="AL3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="31"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="31"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="31"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="35"/>
+      <c r="AS3" s="35"/>
+      <c r="AT3" s="35"/>
+      <c r="AU3" s="35"/>
+      <c r="AV3" s="35"/>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="35"/>
+      <c r="AY3" s="35"/>
+      <c r="AZ3" s="35"/>
+      <c r="BA3" s="35"/>
       <c r="BB3" s="7"/>
       <c r="BC3" s="7"/>
       <c r="BD3" s="12"/>
-      <c r="BE3" s="37" t="s">
+      <c r="BE3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="31"/>
-      <c r="BH3" s="31"/>
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="35"/>
+      <c r="BH3" s="35"/>
       <c r="BI3" s="7"/>
       <c r="BJ3" s="7"/>
       <c r="BK3" s="7"/>
       <c r="BL3" s="7"/>
       <c r="BM3" s="7"/>
-      <c r="BN3" s="31"/>
+      <c r="BN3" s="35"/>
     </row>
     <row r="4" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1404,13 +1436,13 @@
       <c r="AC4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
       <c r="AK4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1492,16 +1524,16 @@
       <c r="BK4" s="14"/>
       <c r="BL4" s="14"/>
       <c r="BM4" s="14"/>
-      <c r="BN4" s="31"/>
+      <c r="BN4" s="35"/>
     </row>
     <row r="5" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="1" t="s">
         <v>89</v>
       </c>
@@ -1568,13 +1600,13 @@
       <c r="AC5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
       <c r="AK5" s="1" t="s">
         <v>89</v>
       </c>
@@ -1662,16 +1694,16 @@
       <c r="BM5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="BN5" s="31"/>
+      <c r="BN5" s="35"/>
     </row>
     <row r="6" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="1" t="s">
         <v>92</v>
       </c>
@@ -1738,13 +1770,13 @@
       <c r="AC6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
       <c r="AK6" s="1" t="s">
         <v>92</v>
       </c>
@@ -1826,16 +1858,16 @@
       <c r="BK6" s="14"/>
       <c r="BL6" s="14"/>
       <c r="BM6" s="14"/>
-      <c r="BN6" s="31"/>
+      <c r="BN6" s="35"/>
     </row>
     <row r="7" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="1" t="s">
         <v>106</v>
       </c>
@@ -1888,17 +1920,17 @@
         <v>6</v>
       </c>
       <c r="Y7" s="15"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35"/>
       <c r="AK7" s="1" t="s">
         <v>106</v>
       </c>
@@ -1957,16 +1989,16 @@
         <v>0</v>
       </c>
       <c r="BD7" s="15"/>
-      <c r="BE7" s="35"/>
-      <c r="BF7" s="31"/>
-      <c r="BG7" s="31"/>
-      <c r="BH7" s="31"/>
-      <c r="BI7" s="31"/>
-      <c r="BJ7" s="31"/>
-      <c r="BK7" s="31"/>
-      <c r="BL7" s="31"/>
-      <c r="BM7" s="31"/>
-      <c r="BN7" s="31"/>
+      <c r="BE7" s="36"/>
+      <c r="BF7" s="35"/>
+      <c r="BG7" s="35"/>
+      <c r="BH7" s="35"/>
+      <c r="BI7" s="35"/>
+      <c r="BJ7" s="35"/>
+      <c r="BK7" s="35"/>
+      <c r="BL7" s="35"/>
+      <c r="BM7" s="35"/>
+      <c r="BN7" s="35"/>
     </row>
     <row r="8" spans="1:66" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -2052,7 +2084,7 @@
       <c r="AC8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="31"/>
+      <c r="AD8" s="35"/>
       <c r="AE8" s="1" t="s">
         <v>53</v>
       </c>
@@ -2154,7 +2186,7 @@
       <c r="BM8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="BN8" s="31"/>
+      <c r="BN8" s="35"/>
     </row>
     <row r="9" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -2215,7 +2247,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
-      <c r="AD9" s="31"/>
+      <c r="AD9" s="35"/>
       <c r="AE9" s="20">
         <v>1</v>
       </c>
@@ -2278,7 +2310,7 @@
       <c r="BK9" s="22"/>
       <c r="BL9" s="22"/>
       <c r="BM9" s="22"/>
-      <c r="BN9" s="31"/>
+      <c r="BN9" s="35"/>
     </row>
     <row r="10" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -2345,7 +2377,7 @@
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
-      <c r="AD10" s="31"/>
+      <c r="AD10" s="35"/>
       <c r="AE10" s="20">
         <v>2</v>
       </c>
@@ -2414,7 +2446,7 @@
       <c r="BK10" s="22"/>
       <c r="BL10" s="22"/>
       <c r="BM10" s="22"/>
-      <c r="BN10" s="31"/>
+      <c r="BN10" s="35"/>
     </row>
     <row r="11" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -2487,7 +2519,7 @@
         <v>0.01</v>
       </c>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="31"/>
+      <c r="AD11" s="35"/>
       <c r="AE11" s="20">
         <v>3</v>
       </c>
@@ -2566,7 +2598,7 @@
       <c r="BK11" s="22"/>
       <c r="BL11" s="22"/>
       <c r="BM11" s="22"/>
-      <c r="BN11" s="31"/>
+      <c r="BN11" s="35"/>
     </row>
     <row r="12" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -2655,7 +2687,7 @@
       <c r="AC12" s="22">
         <v>0.01</v>
       </c>
-      <c r="AD12" s="31"/>
+      <c r="AD12" s="35"/>
       <c r="AE12" s="20">
         <v>4</v>
       </c>
@@ -2744,7 +2776,7 @@
       <c r="BK12" s="22"/>
       <c r="BL12" s="22"/>
       <c r="BM12" s="22"/>
-      <c r="BN12" s="31"/>
+      <c r="BN12" s="35"/>
     </row>
     <row r="13" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -2833,7 +2865,7 @@
       <c r="AC13" s="22">
         <v>0.01</v>
       </c>
-      <c r="AD13" s="31"/>
+      <c r="AD13" s="35"/>
       <c r="AE13" s="20">
         <v>5</v>
       </c>
@@ -2928,7 +2960,7 @@
       <c r="BK13" s="22"/>
       <c r="BL13" s="22"/>
       <c r="BM13" s="22"/>
-      <c r="BN13" s="31"/>
+      <c r="BN13" s="35"/>
     </row>
     <row r="14" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -3017,7 +3049,7 @@
       <c r="AC14" s="22">
         <v>0.02</v>
       </c>
-      <c r="AD14" s="31"/>
+      <c r="AD14" s="35"/>
       <c r="AE14" s="20">
         <v>6</v>
       </c>
@@ -3116,7 +3148,7 @@
       <c r="BK14" s="22"/>
       <c r="BL14" s="22"/>
       <c r="BM14" s="22"/>
-      <c r="BN14" s="31"/>
+      <c r="BN14" s="35"/>
     </row>
     <row r="15" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -3205,7 +3237,7 @@
       <c r="AC15" s="22">
         <v>0.02</v>
       </c>
-      <c r="AD15" s="31"/>
+      <c r="AD15" s="35"/>
       <c r="AE15" s="20">
         <v>7</v>
       </c>
@@ -3304,7 +3336,7 @@
       <c r="BK15" s="4"/>
       <c r="BL15" s="4"/>
       <c r="BM15" s="4"/>
-      <c r="BN15" s="31"/>
+      <c r="BN15" s="35"/>
     </row>
     <row r="16" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
@@ -3393,7 +3425,7 @@
       <c r="AC16" s="22">
         <v>0.02</v>
       </c>
-      <c r="AD16" s="31"/>
+      <c r="AD16" s="35"/>
       <c r="AE16" s="20">
         <v>8</v>
       </c>
@@ -3492,7 +3524,7 @@
       <c r="BK16" s="4"/>
       <c r="BL16" s="4"/>
       <c r="BM16" s="4"/>
-      <c r="BN16" s="31"/>
+      <c r="BN16" s="35"/>
     </row>
     <row r="17" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
@@ -3581,7 +3613,7 @@
       <c r="AC17" s="22">
         <v>0.02</v>
       </c>
-      <c r="AD17" s="31"/>
+      <c r="AD17" s="35"/>
       <c r="AE17" s="20">
         <v>9</v>
       </c>
@@ -3680,7 +3712,7 @@
       <c r="BK17" s="4"/>
       <c r="BL17" s="4"/>
       <c r="BM17" s="4"/>
-      <c r="BN17" s="31"/>
+      <c r="BN17" s="35"/>
     </row>
     <row r="18" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -3769,7 +3801,7 @@
       <c r="AC18" s="22">
         <v>0.02</v>
       </c>
-      <c r="AD18" s="31"/>
+      <c r="AD18" s="35"/>
       <c r="AE18" s="20">
         <v>10</v>
       </c>
@@ -3868,7 +3900,7 @@
       <c r="BK18" s="4"/>
       <c r="BL18" s="4"/>
       <c r="BM18" s="4"/>
-      <c r="BN18" s="31"/>
+      <c r="BN18" s="35"/>
     </row>
     <row r="19" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -3957,7 +3989,7 @@
       <c r="AC19" s="22">
         <v>0.02</v>
       </c>
-      <c r="AD19" s="31"/>
+      <c r="AD19" s="35"/>
       <c r="AE19" s="20">
         <v>11</v>
       </c>
@@ -4056,7 +4088,7 @@
       <c r="BK19" s="4"/>
       <c r="BL19" s="4"/>
       <c r="BM19" s="4"/>
-      <c r="BN19" s="31"/>
+      <c r="BN19" s="35"/>
     </row>
     <row r="20" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -4145,7 +4177,7 @@
       <c r="AC20" s="22">
         <v>0.02</v>
       </c>
-      <c r="AD20" s="31"/>
+      <c r="AD20" s="35"/>
       <c r="AE20" s="20">
         <v>12</v>
       </c>
@@ -4244,7 +4276,7 @@
       <c r="BK20" s="4"/>
       <c r="BL20" s="4"/>
       <c r="BM20" s="4"/>
-      <c r="BN20" s="31"/>
+      <c r="BN20" s="35"/>
     </row>
     <row r="21" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -4333,7 +4365,7 @@
       <c r="AC21" s="22">
         <v>0.02</v>
       </c>
-      <c r="AD21" s="31"/>
+      <c r="AD21" s="35"/>
       <c r="AE21" s="20">
         <v>13</v>
       </c>
@@ -4432,7 +4464,7 @@
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4"/>
-      <c r="BN21" s="31"/>
+      <c r="BN21" s="35"/>
     </row>
     <row r="22" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -4521,7 +4553,7 @@
       <c r="AC22" s="22">
         <v>0.02</v>
       </c>
-      <c r="AD22" s="31"/>
+      <c r="AD22" s="35"/>
       <c r="AE22" s="20">
         <v>14</v>
       </c>
@@ -4620,7 +4652,7 @@
       <c r="BK22" s="4"/>
       <c r="BL22" s="4"/>
       <c r="BM22" s="4"/>
-      <c r="BN22" s="31"/>
+      <c r="BN22" s="35"/>
     </row>
     <row r="23" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
@@ -4709,7 +4741,7 @@
       <c r="AC23" s="22">
         <v>0.02</v>
       </c>
-      <c r="AD23" s="31"/>
+      <c r="AD23" s="35"/>
       <c r="AE23" s="20">
         <v>15</v>
       </c>
@@ -4808,7 +4840,7 @@
       <c r="BK23" s="4"/>
       <c r="BL23" s="4"/>
       <c r="BM23" s="4"/>
-      <c r="BN23" s="31"/>
+      <c r="BN23" s="35"/>
     </row>
     <row r="24" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
@@ -4845,7 +4877,7 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="31"/>
+      <c r="AD24" s="35"/>
       <c r="AE24" s="20">
         <v>16</v>
       </c>
@@ -4944,7 +4976,7 @@
       <c r="BK24" s="4"/>
       <c r="BL24" s="4"/>
       <c r="BM24" s="4"/>
-      <c r="BN24" s="31"/>
+      <c r="BN24" s="35"/>
     </row>
     <row r="25" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
@@ -4981,7 +5013,7 @@
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="31"/>
+      <c r="AD25" s="35"/>
       <c r="AE25" s="20">
         <v>17</v>
       </c>
@@ -5080,7 +5112,7 @@
       <c r="BK25" s="4"/>
       <c r="BL25" s="4"/>
       <c r="BM25" s="4"/>
-      <c r="BN25" s="31"/>
+      <c r="BN25" s="35"/>
     </row>
     <row r="26" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
@@ -5117,7 +5149,7 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="31"/>
+      <c r="AD26" s="35"/>
       <c r="AE26" s="20">
         <v>18</v>
       </c>
@@ -5216,7 +5248,7 @@
       <c r="BK26" s="4"/>
       <c r="BL26" s="4"/>
       <c r="BM26" s="4"/>
-      <c r="BN26" s="31"/>
+      <c r="BN26" s="35"/>
     </row>
     <row r="27" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
@@ -5253,7 +5285,7 @@
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
-      <c r="AD27" s="31"/>
+      <c r="AD27" s="35"/>
       <c r="AE27" s="20">
         <v>19</v>
       </c>
@@ -5352,7 +5384,7 @@
       <c r="BK27" s="4"/>
       <c r="BL27" s="4"/>
       <c r="BM27" s="4"/>
-      <c r="BN27" s="31"/>
+      <c r="BN27" s="35"/>
     </row>
     <row r="28" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
@@ -5389,7 +5421,7 @@
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="31"/>
+      <c r="AD28" s="35"/>
       <c r="AE28" s="20">
         <v>20</v>
       </c>
@@ -5488,7 +5520,7 @@
       <c r="BK28" s="4"/>
       <c r="BL28" s="4"/>
       <c r="BM28" s="4"/>
-      <c r="BN28" s="31"/>
+      <c r="BN28" s="35"/>
     </row>
     <row r="29" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
@@ -5525,7 +5557,7 @@
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
-      <c r="AD29" s="31"/>
+      <c r="AD29" s="35"/>
       <c r="AE29" s="20">
         <v>21</v>
       </c>
@@ -5624,7 +5656,7 @@
       <c r="BK29" s="4"/>
       <c r="BL29" s="4"/>
       <c r="BM29" s="4"/>
-      <c r="BN29" s="31"/>
+      <c r="BN29" s="35"/>
     </row>
     <row r="30" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
@@ -5661,7 +5693,7 @@
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
-      <c r="AD30" s="31"/>
+      <c r="AD30" s="35"/>
       <c r="AE30" s="20">
         <v>22</v>
       </c>
@@ -5760,7 +5792,7 @@
       <c r="BK30" s="4"/>
       <c r="BL30" s="4"/>
       <c r="BM30" s="4"/>
-      <c r="BN30" s="31"/>
+      <c r="BN30" s="35"/>
     </row>
     <row r="31" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
@@ -5797,7 +5829,7 @@
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
-      <c r="AD31" s="31"/>
+      <c r="AD31" s="35"/>
       <c r="AE31" s="20">
         <v>23</v>
       </c>
@@ -5896,7 +5928,7 @@
       <c r="BK31" s="4"/>
       <c r="BL31" s="4"/>
       <c r="BM31" s="4"/>
-      <c r="BN31" s="31"/>
+      <c r="BN31" s="35"/>
     </row>
     <row r="32" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
@@ -5933,7 +5965,7 @@
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
-      <c r="AD32" s="31"/>
+      <c r="AD32" s="35"/>
       <c r="AE32" s="20">
         <v>24</v>
       </c>
@@ -6038,7 +6070,7 @@
       <c r="BM32" s="22">
         <v>0.01</v>
       </c>
-      <c r="BN32" s="31"/>
+      <c r="BN32" s="35"/>
     </row>
     <row r="33" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
@@ -6075,7 +6107,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
-      <c r="AD33" s="31"/>
+      <c r="AD33" s="35"/>
       <c r="AE33" s="20">
         <v>25</v>
       </c>
@@ -6180,7 +6212,7 @@
       <c r="BM33" s="22">
         <v>0.01</v>
       </c>
-      <c r="BN33" s="31"/>
+      <c r="BN33" s="35"/>
     </row>
     <row r="34" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
@@ -6217,7 +6249,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
-      <c r="AD34" s="31"/>
+      <c r="AD34" s="35"/>
       <c r="AE34" s="20">
         <v>26</v>
       </c>
@@ -6322,7 +6354,7 @@
       <c r="BM34" s="22">
         <v>0.01</v>
       </c>
-      <c r="BN34" s="31"/>
+      <c r="BN34" s="35"/>
     </row>
     <row r="35" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
@@ -6359,7 +6391,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
-      <c r="AD35" s="31"/>
+      <c r="AD35" s="35"/>
       <c r="AE35" s="20">
         <v>27</v>
       </c>
@@ -6464,7 +6496,7 @@
       <c r="BM35" s="22">
         <v>0.01</v>
       </c>
-      <c r="BN35" s="31"/>
+      <c r="BN35" s="35"/>
     </row>
     <row r="36" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
@@ -6501,7 +6533,7 @@
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
-      <c r="AD36" s="31"/>
+      <c r="AD36" s="35"/>
       <c r="AE36" s="20">
         <v>28</v>
       </c>
@@ -6606,7 +6638,7 @@
       <c r="BM36" s="22">
         <v>0.01</v>
       </c>
-      <c r="BN36" s="31"/>
+      <c r="BN36" s="35"/>
     </row>
     <row r="37" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
@@ -6643,7 +6675,7 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
-      <c r="AD37" s="31"/>
+      <c r="AD37" s="35"/>
       <c r="AE37" s="20">
         <v>29</v>
       </c>
@@ -6746,7 +6778,7 @@
       <c r="BM37" s="22">
         <v>0.01</v>
       </c>
-      <c r="BN37" s="31"/>
+      <c r="BN37" s="35"/>
     </row>
     <row r="38" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
@@ -6783,7 +6815,7 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
-      <c r="AD38" s="31"/>
+      <c r="AD38" s="35"/>
       <c r="AE38" s="20">
         <v>30</v>
       </c>
@@ -6884,7 +6916,7 @@
       <c r="BM38" s="22">
         <v>0.01</v>
       </c>
-      <c r="BN38" s="31"/>
+      <c r="BN38" s="35"/>
     </row>
     <row r="39" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
@@ -6921,7 +6953,7 @@
       <c r="AA39" s="29"/>
       <c r="AB39" s="29"/>
       <c r="AC39" s="29"/>
-      <c r="AD39" s="31"/>
+      <c r="AD39" s="35"/>
       <c r="AE39" s="26"/>
       <c r="AF39" s="20"/>
       <c r="AG39" s="24"/>
@@ -6960,7 +6992,7 @@
       <c r="BK39" s="30"/>
       <c r="BL39" s="30"/>
       <c r="BM39" s="30"/>
-      <c r="BN39" s="31"/>
+      <c r="BN39" s="35"/>
     </row>
     <row r="40" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
@@ -6997,7 +7029,7 @@
       <c r="AA40" s="29"/>
       <c r="AB40" s="29"/>
       <c r="AC40" s="29"/>
-      <c r="AD40" s="31"/>
+      <c r="AD40" s="35"/>
       <c r="AE40" s="26"/>
       <c r="AF40" s="26"/>
       <c r="AG40" s="26"/>
@@ -7036,7 +7068,7 @@
       <c r="BK40" s="30"/>
       <c r="BL40" s="30"/>
       <c r="BM40" s="30"/>
-      <c r="BN40" s="31"/>
+      <c r="BN40" s="35"/>
     </row>
     <row r="41" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
@@ -7073,7 +7105,7 @@
       <c r="AA41" s="29"/>
       <c r="AB41" s="29"/>
       <c r="AC41" s="29"/>
-      <c r="AD41" s="31"/>
+      <c r="AD41" s="35"/>
       <c r="AE41" s="26"/>
       <c r="AF41" s="26"/>
       <c r="AG41" s="26"/>
@@ -7112,7 +7144,7 @@
       <c r="BK41" s="30"/>
       <c r="BL41" s="30"/>
       <c r="BM41" s="30"/>
-      <c r="BN41" s="31"/>
+      <c r="BN41" s="35"/>
     </row>
     <row r="42" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
@@ -7149,7 +7181,7 @@
       <c r="AA42" s="29"/>
       <c r="AB42" s="29"/>
       <c r="AC42" s="29"/>
-      <c r="AD42" s="31"/>
+      <c r="AD42" s="35"/>
       <c r="AE42" s="26"/>
       <c r="AF42" s="26"/>
       <c r="AG42" s="26"/>
@@ -7188,7 +7220,7 @@
       <c r="BK42" s="30"/>
       <c r="BL42" s="30"/>
       <c r="BM42" s="30"/>
-      <c r="BN42" s="31"/>
+      <c r="BN42" s="35"/>
     </row>
     <row r="43" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
@@ -7225,7 +7257,7 @@
       <c r="AA43" s="29"/>
       <c r="AB43" s="29"/>
       <c r="AC43" s="29"/>
-      <c r="AD43" s="31"/>
+      <c r="AD43" s="35"/>
       <c r="AE43" s="26"/>
       <c r="AF43" s="26"/>
       <c r="AG43" s="26"/>
@@ -7264,7 +7296,7 @@
       <c r="BK43" s="30"/>
       <c r="BL43" s="30"/>
       <c r="BM43" s="30"/>
-      <c r="BN43" s="31"/>
+      <c r="BN43" s="35"/>
     </row>
     <row r="44" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
@@ -7301,7 +7333,7 @@
       <c r="AA44" s="29"/>
       <c r="AB44" s="29"/>
       <c r="AC44" s="29"/>
-      <c r="AD44" s="31"/>
+      <c r="AD44" s="35"/>
       <c r="AE44" s="26"/>
       <c r="AF44" s="26"/>
       <c r="AG44" s="26"/>
@@ -7340,7 +7372,7 @@
       <c r="BK44" s="30"/>
       <c r="BL44" s="30"/>
       <c r="BM44" s="30"/>
-      <c r="BN44" s="31"/>
+      <c r="BN44" s="35"/>
     </row>
     <row r="45" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
@@ -7377,7 +7409,7 @@
       <c r="AA45" s="29"/>
       <c r="AB45" s="29"/>
       <c r="AC45" s="29"/>
-      <c r="AD45" s="31"/>
+      <c r="AD45" s="35"/>
       <c r="AE45" s="26"/>
       <c r="AF45" s="26"/>
       <c r="AG45" s="26"/>
@@ -7416,7 +7448,7 @@
       <c r="BK45" s="30"/>
       <c r="BL45" s="30"/>
       <c r="BM45" s="30"/>
-      <c r="BN45" s="31"/>
+      <c r="BN45" s="35"/>
     </row>
     <row r="46" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
@@ -7453,7 +7485,7 @@
       <c r="AA46" s="29"/>
       <c r="AB46" s="29"/>
       <c r="AC46" s="29"/>
-      <c r="AD46" s="31"/>
+      <c r="AD46" s="35"/>
       <c r="AE46" s="26"/>
       <c r="AF46" s="26"/>
       <c r="AG46" s="26"/>
@@ -7492,7 +7524,7 @@
       <c r="BK46" s="30"/>
       <c r="BL46" s="30"/>
       <c r="BM46" s="30"/>
-      <c r="BN46" s="31"/>
+      <c r="BN46" s="35"/>
     </row>
     <row r="47" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
@@ -7529,7 +7561,7 @@
       <c r="AA47" s="29"/>
       <c r="AB47" s="29"/>
       <c r="AC47" s="29"/>
-      <c r="AD47" s="31"/>
+      <c r="AD47" s="35"/>
       <c r="AE47" s="26"/>
       <c r="AF47" s="26"/>
       <c r="AG47" s="26"/>
@@ -7568,7 +7600,7 @@
       <c r="BK47" s="30"/>
       <c r="BL47" s="30"/>
       <c r="BM47" s="30"/>
-      <c r="BN47" s="31"/>
+      <c r="BN47" s="35"/>
     </row>
     <row r="48" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
@@ -7605,7 +7637,7 @@
       <c r="AA48" s="29"/>
       <c r="AB48" s="29"/>
       <c r="AC48" s="29"/>
-      <c r="AD48" s="31"/>
+      <c r="AD48" s="35"/>
       <c r="AE48" s="26"/>
       <c r="AF48" s="26"/>
       <c r="AG48" s="26"/>
@@ -7644,7 +7676,7 @@
       <c r="BK48" s="30"/>
       <c r="BL48" s="30"/>
       <c r="BM48" s="30"/>
-      <c r="BN48" s="31"/>
+      <c r="BN48" s="35"/>
     </row>
     <row r="49" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
@@ -7681,7 +7713,7 @@
       <c r="AA49" s="29"/>
       <c r="AB49" s="29"/>
       <c r="AC49" s="29"/>
-      <c r="AD49" s="31"/>
+      <c r="AD49" s="35"/>
       <c r="AE49" s="26"/>
       <c r="AF49" s="26"/>
       <c r="AG49" s="26"/>
@@ -7720,7 +7752,7 @@
       <c r="BK49" s="30"/>
       <c r="BL49" s="30"/>
       <c r="BM49" s="30"/>
-      <c r="BN49" s="31"/>
+      <c r="BN49" s="35"/>
     </row>
     <row r="50" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
@@ -7757,7 +7789,7 @@
       <c r="AA50" s="29"/>
       <c r="AB50" s="29"/>
       <c r="AC50" s="29"/>
-      <c r="AD50" s="31"/>
+      <c r="AD50" s="35"/>
       <c r="AE50" s="26"/>
       <c r="AF50" s="26"/>
       <c r="AG50" s="26"/>
@@ -7796,7 +7828,7 @@
       <c r="BK50" s="30"/>
       <c r="BL50" s="30"/>
       <c r="BM50" s="30"/>
-      <c r="BN50" s="31"/>
+      <c r="BN50" s="35"/>
     </row>
     <row r="51" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
@@ -7833,7 +7865,7 @@
       <c r="AA51" s="29"/>
       <c r="AB51" s="29"/>
       <c r="AC51" s="29"/>
-      <c r="AD51" s="31"/>
+      <c r="AD51" s="35"/>
       <c r="AE51" s="26"/>
       <c r="AF51" s="26"/>
       <c r="AG51" s="26"/>
@@ -7872,7 +7904,7 @@
       <c r="BK51" s="30"/>
       <c r="BL51" s="30"/>
       <c r="BM51" s="30"/>
-      <c r="BN51" s="31"/>
+      <c r="BN51" s="35"/>
     </row>
     <row r="52" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
@@ -7909,7 +7941,7 @@
       <c r="AA52" s="29"/>
       <c r="AB52" s="29"/>
       <c r="AC52" s="29"/>
-      <c r="AD52" s="31"/>
+      <c r="AD52" s="35"/>
       <c r="AE52" s="26"/>
       <c r="AF52" s="26"/>
       <c r="AG52" s="26"/>
@@ -7948,7 +7980,7 @@
       <c r="BK52" s="30"/>
       <c r="BL52" s="30"/>
       <c r="BM52" s="30"/>
-      <c r="BN52" s="31"/>
+      <c r="BN52" s="35"/>
     </row>
     <row r="53" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
@@ -7985,7 +8017,7 @@
       <c r="AA53" s="29"/>
       <c r="AB53" s="29"/>
       <c r="AC53" s="29"/>
-      <c r="AD53" s="31"/>
+      <c r="AD53" s="35"/>
       <c r="AE53" s="26"/>
       <c r="AF53" s="26"/>
       <c r="AG53" s="26"/>
@@ -8024,7 +8056,7 @@
       <c r="BK53" s="30"/>
       <c r="BL53" s="30"/>
       <c r="BM53" s="30"/>
-      <c r="BN53" s="31"/>
+      <c r="BN53" s="35"/>
     </row>
     <row r="54" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
@@ -8061,7 +8093,7 @@
       <c r="AA54" s="29"/>
       <c r="AB54" s="29"/>
       <c r="AC54" s="29"/>
-      <c r="AD54" s="31"/>
+      <c r="AD54" s="35"/>
       <c r="AE54" s="26"/>
       <c r="AF54" s="26"/>
       <c r="AG54" s="26"/>
@@ -8100,7 +8132,7 @@
       <c r="BK54" s="30"/>
       <c r="BL54" s="30"/>
       <c r="BM54" s="30"/>
-      <c r="BN54" s="31"/>
+      <c r="BN54" s="35"/>
     </row>
     <row r="55" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
@@ -8137,7 +8169,7 @@
       <c r="AA55" s="29"/>
       <c r="AB55" s="29"/>
       <c r="AC55" s="29"/>
-      <c r="AD55" s="31"/>
+      <c r="AD55" s="35"/>
       <c r="AE55" s="26"/>
       <c r="AF55" s="26"/>
       <c r="AG55" s="26"/>
@@ -8176,7 +8208,7 @@
       <c r="BK55" s="30"/>
       <c r="BL55" s="30"/>
       <c r="BM55" s="30"/>
-      <c r="BN55" s="31"/>
+      <c r="BN55" s="35"/>
     </row>
     <row r="56" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
@@ -8213,7 +8245,7 @@
       <c r="AA56" s="29"/>
       <c r="AB56" s="29"/>
       <c r="AC56" s="29"/>
-      <c r="AD56" s="31"/>
+      <c r="AD56" s="35"/>
       <c r="AE56" s="26"/>
       <c r="AF56" s="26"/>
       <c r="AG56" s="26"/>
@@ -8252,7 +8284,7 @@
       <c r="BK56" s="30"/>
       <c r="BL56" s="30"/>
       <c r="BM56" s="30"/>
-      <c r="BN56" s="31"/>
+      <c r="BN56" s="35"/>
     </row>
     <row r="57" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
@@ -8289,7 +8321,7 @@
       <c r="AA57" s="29"/>
       <c r="AB57" s="29"/>
       <c r="AC57" s="29"/>
-      <c r="AD57" s="31"/>
+      <c r="AD57" s="35"/>
       <c r="AE57" s="26"/>
       <c r="AF57" s="26"/>
       <c r="AG57" s="26"/>
@@ -8328,7 +8360,7 @@
       <c r="BK57" s="30"/>
       <c r="BL57" s="30"/>
       <c r="BM57" s="30"/>
-      <c r="BN57" s="31"/>
+      <c r="BN57" s="35"/>
     </row>
     <row r="58" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
@@ -8365,7 +8397,7 @@
       <c r="AA58" s="29"/>
       <c r="AB58" s="29"/>
       <c r="AC58" s="29"/>
-      <c r="AD58" s="31"/>
+      <c r="AD58" s="35"/>
       <c r="AE58" s="26"/>
       <c r="AF58" s="26"/>
       <c r="AG58" s="26"/>
@@ -8404,24 +8436,24 @@
       <c r="BK58" s="30"/>
       <c r="BL58" s="30"/>
       <c r="BM58" s="30"/>
-      <c r="BN58" s="31"/>
+      <c r="BN58" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BN1:BN58"/>
+    <mergeCell ref="AE4:AJ7"/>
+    <mergeCell ref="BE7:BM7"/>
+    <mergeCell ref="AE3:AJ3"/>
+    <mergeCell ref="AL3:BA3"/>
+    <mergeCell ref="BE3:BH3"/>
+    <mergeCell ref="AD1:AD58"/>
+    <mergeCell ref="AE1:BH1"/>
     <mergeCell ref="B1:AC1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="I3:X3"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="B4:G7"/>
     <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="AE3:AJ3"/>
-    <mergeCell ref="AL3:BA3"/>
-    <mergeCell ref="BE3:BH3"/>
-    <mergeCell ref="AD1:AD58"/>
-    <mergeCell ref="AE1:BH1"/>
-    <mergeCell ref="BN1:BN58"/>
-    <mergeCell ref="AE4:AJ7"/>
-    <mergeCell ref="BE7:BM7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
